--- a/Vjezba-4/Zadatak-3/Grafovi.xlsx
+++ b/Vjezba-4/Zadatak-3/Grafovi.xlsx
@@ -68,11 +68,8 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -197,6 +194,7 @@
           <c:dLbls>
             <c:showBubbleSize val="0"/>
             <c:showCatName val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:showLegendKey val="0"/>
             <c:showPercent val="0"/>
             <c:showSerName val="0"/>
@@ -283,6 +281,7 @@
           <c:dLbls>
             <c:showBubbleSize val="0"/>
             <c:showCatName val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:showLegendKey val="0"/>
             <c:showPercent val="0"/>
             <c:showSerName val="0"/>
@@ -346,6 +345,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:gapWidth val="182"/>
         <c:axId val="436091891"/>
         <c:axId val="436091892"/>
@@ -824,6 +831,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -1308,6 +1316,7 @@
         <c:dLbls>
           <c:showBubbleSize val="0"/>
           <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
           <c:showLegendKey val="0"/>
           <c:showPercent val="0"/>
           <c:showSerName val="0"/>
@@ -3840,55 +3849,55 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>1000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>10000</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>100000</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>10</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>100</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <v>1000</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="2">
         <v>10000</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>100000</v>
       </c>
     </row>
@@ -3962,10 +3971,10 @@
         <v>0.0040000000000000001</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0060000000000000001</v>
       </c>
       <c r="K4">
-        <v>0.0040000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="L4">
         <v>0.025999999999999999</v>
@@ -4030,7 +4039,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
